--- a/Tab_9a_Links.xlsx
+++ b/Tab_9a_Links.xlsx
@@ -447,7 +447,7 @@
     <col customWidth="true" min="2" max="2" width="13.8359375"/>
     <col customWidth="true" min="3" max="3" width="104.44140625"/>
     <col customWidth="true" min="4" max="4" width="13.8359375"/>
-    <col customWidth="true" min="5" max="5" width="13.8359375"/>
+    <col customWidth="true" min="5" max="5" width="68.9921875"/>
     <col customWidth="true" min="6" max="6" width="13.8359375"/>
   </cols>
   <sheetData>
